--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="111">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,198 +46,213 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>disappointed</t>
+    <t>waste</t>
   </si>
   <si>
     <t>pool</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>thin</t>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>instead</t>
   </si>
   <si>
     <t>tiny</t>
   </si>
   <si>
+    <t>small</t>
+  </si>
+  <si>
     <t>water</t>
   </si>
   <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>junk</t>
+    <t>missing</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
     <t>broken</t>
   </si>
   <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
     <t>di</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>difficult</t>
+    <t>size</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>minutes</t>
   </si>
   <si>
     <t>bit</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
     <t>item</t>
   </si>
   <si>
-    <t>though</t>
+    <t>money</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>back</t>
   </si>
   <si>
     <t>worked</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>back</t>
+    <t>used</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
     <t>expected</t>
   </si>
   <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>use</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>made</t>
+    <t>one</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>toy</t>
   </si>
   <si>
+    <t>get</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -247,18 +262,18 @@
     <t>awesome</t>
   </si>
   <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>enjoyable</t>
   </si>
   <si>
@@ -280,31 +295,31 @@
     <t>loved</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>sturdy</t>
   </si>
   <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>enjoyed</t>
   </si>
   <si>
     <t>christmas</t>
@@ -316,19 +331,16 @@
     <t>every</t>
   </si>
   <si>
-    <t>enjoyed</t>
+    <t>family</t>
   </si>
   <si>
     <t>game</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>easy</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>playing</t>
   </si>
   <si>
     <t>play</t>
@@ -692,7 +704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -700,10 +712,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -782,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K3">
         <v>0.8928571428571429</v>
@@ -811,13 +823,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -829,10 +841,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K4">
         <v>0.8923076923076924</v>
@@ -861,13 +873,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7631578947368421</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -879,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K5">
-        <v>0.8518518518518519</v>
+        <v>0.85</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -903,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -911,13 +923,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7619047619047619</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -929,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6">
-        <v>0.85</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="L6">
+        <v>76</v>
+      </c>
+      <c r="M6">
+        <v>76</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>17</v>
-      </c>
-      <c r="M6">
-        <v>17</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -961,13 +973,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7464788732394366</v>
+        <v>0.71875</v>
       </c>
       <c r="C7">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D7">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -982,16 +994,16 @@
         <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K7">
-        <v>0.8279569892473119</v>
+        <v>0.796875</v>
       </c>
       <c r="L7">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="M7">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1003,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1011,13 +1023,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.71875</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C8">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1029,19 +1041,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K8">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L8">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="M8">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1053,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1061,13 +1073,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6612903225806451</v>
+        <v>0.6720430107526881</v>
       </c>
       <c r="C9">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D9">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1079,10 +1091,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K9">
         <v>0.7083333333333334</v>
@@ -1111,13 +1123,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6571428571428571</v>
+        <v>0.6359223300970874</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1129,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K10">
-        <v>0.6981132075471698</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L10">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M10">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1153,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1161,13 +1173,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6456310679611651</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C11">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1179,19 +1191,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K11">
-        <v>0.5767575322812052</v>
+        <v>0.5538020086083214</v>
       </c>
       <c r="L11">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="M11">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1203,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>295</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1211,13 +1223,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6351351351351351</v>
+        <v>0.6283783783783784</v>
       </c>
       <c r="C12">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1229,19 +1241,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K12">
-        <v>0.4927536231884058</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="L12">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M12">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1253,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1261,13 +1273,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6206896551724138</v>
+        <v>0.6</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1279,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K13">
-        <v>0.4854771784232365</v>
+        <v>0.495850622406639</v>
       </c>
       <c r="L13">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M13">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1303,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1311,13 +1323,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1329,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K14">
-        <v>0.4581967213114754</v>
+        <v>0.4778688524590164</v>
       </c>
       <c r="L14">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="M14">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1353,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>661</v>
+        <v>637</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1361,13 +1373,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5952380952380952</v>
+        <v>0.5798319327731093</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1379,19 +1391,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K15">
-        <v>0.3608562691131498</v>
+        <v>0.345565749235474</v>
       </c>
       <c r="L15">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M15">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1403,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1411,13 +1423,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5833333333333334</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C16">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D16">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1429,19 +1441,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K16">
-        <v>0.3433734939759036</v>
+        <v>0.3227513227513227</v>
       </c>
       <c r="L16">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M16">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1453,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1461,13 +1473,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5798319327731093</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C17">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1479,19 +1491,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K17">
-        <v>0.3207547169811321</v>
+        <v>0.3192771084337349</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1503,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>36</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1511,13 +1523,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5636363636363636</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1529,19 +1541,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K18">
-        <v>0.3174603174603174</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="L18">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M18">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1553,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>129</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1561,13 +1573,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5370370370370371</v>
+        <v>0.4898550724637681</v>
       </c>
       <c r="C19">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="D19">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1579,31 +1591,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>25</v>
+        <v>176</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K19">
-        <v>0.3083333333333333</v>
+        <v>0.3018867924528302</v>
       </c>
       <c r="L19">
+        <v>16</v>
+      </c>
+      <c r="M19">
+        <v>16</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>37</v>
-      </c>
-      <c r="M19">
-        <v>37</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1611,13 +1623,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1629,19 +1641,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K20">
-        <v>0.2711864406779661</v>
+        <v>0.2109375</v>
       </c>
       <c r="L20">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1653,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>43</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1661,13 +1673,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4985507246376812</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C21">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1679,19 +1691,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K21">
-        <v>0.2109375</v>
+        <v>0.2097902097902098</v>
       </c>
       <c r="L21">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1703,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1711,13 +1723,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4888888888888889</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1729,19 +1741,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K22">
-        <v>0.1954022988505747</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1753,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1761,38 +1773,38 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4457831325301205</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="C23">
+        <v>36</v>
+      </c>
+      <c r="D23">
+        <v>36</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>47</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K23">
+        <v>0.1989247311827957</v>
+      </c>
+      <c r="L23">
         <v>37</v>
       </c>
-      <c r="D23">
+      <c r="M23">
         <v>37</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>46</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K23">
-        <v>0.1827956989247312</v>
-      </c>
-      <c r="L23">
-        <v>34</v>
-      </c>
-      <c r="M23">
-        <v>34</v>
-      </c>
       <c r="N23">
         <v>1</v>
       </c>
@@ -1803,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1811,13 +1823,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.421875</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C24">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D24">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1829,19 +1841,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K24">
-        <v>0.1818181818181818</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="L24">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1853,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1861,13 +1873,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3981042654028436</v>
+        <v>0.4081632653061225</v>
       </c>
       <c r="C25">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="D25">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1879,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K25">
-        <v>0.1606425702811245</v>
+        <v>0.1566265060240964</v>
       </c>
       <c r="L25">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M25">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1903,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1911,13 +1923,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3968253968253968</v>
+        <v>0.3937007874015748</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D26">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1929,19 +1941,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K26">
-        <v>0.1498685363716039</v>
+        <v>0.1489921121822962</v>
       </c>
       <c r="L26">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M26">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1953,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1961,13 +1973,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3937007874015748</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C27">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D27">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1979,10 +1991,10 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K27">
         <v>0.144</v>
@@ -2011,13 +2023,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3894736842105263</v>
+        <v>0.3649289099526066</v>
       </c>
       <c r="C28">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D28">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2029,19 +2041,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K28">
-        <v>0.1428571428571428</v>
+        <v>0.08913649025069638</v>
       </c>
       <c r="L28">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M28">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2053,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>108</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2061,7 +2073,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3888888888888889</v>
+        <v>0.35</v>
       </c>
       <c r="C29">
         <v>21</v>
@@ -2079,31 +2091,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="K29">
-        <v>0.07792207792207792</v>
+        <v>0.07268007787151201</v>
       </c>
       <c r="L29">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="M29">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="N29">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>1420</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2111,13 +2123,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3833333333333334</v>
+        <v>0.3473684210526316</v>
       </c>
       <c r="C30">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D30">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2129,31 +2141,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K30">
-        <v>0.06702412868632708</v>
+        <v>0.05862068965517241</v>
       </c>
       <c r="L30">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M30">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N30">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>348</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2161,13 +2173,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3359375</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="C31">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D31">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2179,19 +2191,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K31">
-        <v>0.06406685236768803</v>
+        <v>0.05080213903743316</v>
       </c>
       <c r="L31">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2203,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>336</v>
+        <v>355</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2211,13 +2223,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3090909090909091</v>
+        <v>0.3203125</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D32">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2229,45 +2241,45 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="K32">
-        <v>0.05246913580246913</v>
+        <v>0.03466666666666667</v>
       </c>
       <c r="L32">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M32">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2857142857142857</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="C33">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D33">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2279,45 +2291,21 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>45</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K33">
-        <v>0.03595206391478029</v>
-      </c>
-      <c r="L33">
-        <v>27</v>
-      </c>
-      <c r="M33">
-        <v>28</v>
-      </c>
-      <c r="N33">
-        <v>0.96</v>
-      </c>
-      <c r="O33">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P33" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q33">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2835820895522388</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C34">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D34">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2329,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
@@ -2358,18 +2346,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.247191011235955</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="C36">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D36">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2381,21 +2369,21 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2346938775510204</v>
+        <v>0.2574257425742574</v>
       </c>
       <c r="C37">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="D37">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2407,21 +2395,21 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2326732673267327</v>
+        <v>0.25</v>
       </c>
       <c r="C38">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D38">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2433,21 +2421,21 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2319587628865979</v>
+        <v>0.2388059701492537</v>
       </c>
       <c r="C39">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D39">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2459,21 +2447,21 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1956521739130435</v>
+        <v>0.2268041237113402</v>
       </c>
       <c r="C40">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D40">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2485,21 +2473,21 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.188034188034188</v>
+        <v>0.2136752136752137</v>
       </c>
       <c r="C41">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D41">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2511,47 +2499,47 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1682242990654206</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="C42">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D42">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E42">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1580459770114943</v>
+        <v>0.1938775510204082</v>
       </c>
       <c r="C43">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D43">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2563,21 +2551,21 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1572700296735905</v>
+        <v>0.1884057971014493</v>
       </c>
       <c r="C44">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="D44">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2589,21 +2577,21 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1550632911392405</v>
+        <v>0.1740506329113924</v>
       </c>
       <c r="C45">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D45">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2615,21 +2603,21 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1455696202531646</v>
+        <v>0.1728971962616822</v>
       </c>
       <c r="C46">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D46">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2641,21 +2629,21 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.145</v>
+        <v>0.17</v>
       </c>
       <c r="C47">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D47">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2667,21 +2655,21 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1428571428571428</v>
+        <v>0.1691394658753709</v>
       </c>
       <c r="C48">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="D48">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2693,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>120</v>
+        <v>560</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2701,13 +2689,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1271186440677966</v>
+        <v>0.1609195402298851</v>
       </c>
       <c r="C49">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="D49">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2719,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>103</v>
+        <v>292</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2727,13 +2715,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1235955056179775</v>
+        <v>0.1582278481012658</v>
       </c>
       <c r="C50">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D50">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2745,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>234</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2753,13 +2741,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1123348017621145</v>
+        <v>0.154639175257732</v>
       </c>
       <c r="C51">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D51">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2771,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>403</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2779,13 +2767,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1121495327102804</v>
+        <v>0.15</v>
       </c>
       <c r="C52">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D52">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2797,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>190</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2805,25 +2793,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1085714285714286</v>
+        <v>0.1495327102803738</v>
       </c>
       <c r="C53">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D53">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>156</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2831,13 +2819,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1082802547770701</v>
+        <v>0.1371428571428571</v>
       </c>
       <c r="C54">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D54">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2849,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2857,25 +2845,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1052631578947368</v>
+        <v>0.1271186440677966</v>
       </c>
       <c r="C55">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D55">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E55">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>221</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2883,13 +2871,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1041666666666667</v>
+        <v>0.1210191082802548</v>
       </c>
       <c r="C56">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D56">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2901,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>172</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2909,13 +2897,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1038961038961039</v>
+        <v>0.1171875</v>
       </c>
       <c r="C57">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D57">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2927,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>138</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2935,13 +2923,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.08196721311475409</v>
+        <v>0.1167400881057269</v>
       </c>
       <c r="C58">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="D58">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2953,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>168</v>
+        <v>401</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2961,25 +2949,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.08021390374331551</v>
+        <v>0.1123595505617977</v>
       </c>
       <c r="C59">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D59">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E59">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>172</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2987,13 +2975,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.07627118644067797</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C60">
+        <v>26</v>
+      </c>
+      <c r="D60">
         <v>27</v>
-      </c>
-      <c r="D60">
-        <v>28</v>
       </c>
       <c r="E60">
         <v>0.04</v>
@@ -3005,7 +2993,7 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>327</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3013,25 +3001,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07590759075907591</v>
+        <v>0.1016042780748663</v>
       </c>
       <c r="C61">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D61">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E61">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="F61">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>560</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3039,13 +3027,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.07572383073496659</v>
+        <v>0.1012658227848101</v>
       </c>
       <c r="C62">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D62">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3057,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>415</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3065,13 +3053,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.07123287671232877</v>
+        <v>0.09740259740259741</v>
       </c>
       <c r="C63">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D63">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3083,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>339</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3091,13 +3079,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05714285714285714</v>
+        <v>0.09424083769633508</v>
       </c>
       <c r="C64">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D64">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3109,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>264</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3117,25 +3105,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.05379746835443038</v>
+        <v>0.09375</v>
       </c>
       <c r="C65">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D65">
         <v>18</v>
       </c>
       <c r="E65">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>299</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3143,25 +3131,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03953488372093023</v>
+        <v>0.07397260273972603</v>
       </c>
       <c r="C66">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D66">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E66">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>413</v>
+        <v>338</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3169,25 +3157,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03934010152284264</v>
+        <v>0.07062146892655367</v>
       </c>
       <c r="C67">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D67">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E67">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
       <c r="F67">
-        <v>0.84</v>
+        <v>0.96</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>757</v>
+        <v>329</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3195,25 +3183,155 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.03533026113671275</v>
+        <v>0.06904231625835189</v>
       </c>
       <c r="C68">
+        <v>31</v>
+      </c>
+      <c r="D68">
+        <v>31</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69">
+        <v>0.05107084019769358</v>
+      </c>
+      <c r="C69">
+        <v>31</v>
+      </c>
+      <c r="D69">
+        <v>32</v>
+      </c>
+      <c r="E69">
+        <v>0.03</v>
+      </c>
+      <c r="F69">
+        <v>0.97</v>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70">
+        <v>0.04562737642585551</v>
+      </c>
+      <c r="C70">
+        <v>36</v>
+      </c>
+      <c r="D70">
+        <v>41</v>
+      </c>
+      <c r="E70">
+        <v>0.12</v>
+      </c>
+      <c r="F70">
+        <v>0.88</v>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71">
+        <v>0.03962703962703962</v>
+      </c>
+      <c r="C71">
+        <v>17</v>
+      </c>
+      <c r="D71">
+        <v>22</v>
+      </c>
+      <c r="E71">
+        <v>0.23</v>
+      </c>
+      <c r="F71">
+        <v>0.77</v>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72">
+        <v>0.03516819571865443</v>
+      </c>
+      <c r="C72">
         <v>23</v>
       </c>
-      <c r="D68">
-        <v>27</v>
-      </c>
-      <c r="E68">
-        <v>0.15</v>
-      </c>
-      <c r="F68">
-        <v>0.85</v>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68">
-        <v>628</v>
+      <c r="D72">
+        <v>24</v>
+      </c>
+      <c r="E72">
+        <v>0.04</v>
+      </c>
+      <c r="F72">
+        <v>0.96</v>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73">
+        <v>0.03504672897196261</v>
+      </c>
+      <c r="C73">
+        <v>15</v>
+      </c>
+      <c r="D73">
+        <v>16</v>
+      </c>
+      <c r="E73">
+        <v>0.06</v>
+      </c>
+      <c r="F73">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>413</v>
       </c>
     </row>
   </sheetData>
